--- a/NatmiData/natmiOut_TPM/YoungD7/LR-pairs_lrc2p/Sema3f-Nrp1.xlsx
+++ b/NatmiData/natmiOut_TPM/YoungD7/LR-pairs_lrc2p/Sema3f-Nrp1.xlsx
@@ -537,16 +537,16 @@
         <v>1</v>
       </c>
       <c r="G2">
-        <v>16.820675</v>
+        <v>44.855544</v>
       </c>
       <c r="H2">
-        <v>50.462025</v>
+        <v>134.566632</v>
       </c>
       <c r="I2">
-        <v>0.8427583848046372</v>
+        <v>0.9269627513664965</v>
       </c>
       <c r="J2">
-        <v>0.8427583848046373</v>
+        <v>0.9269627513664968</v>
       </c>
       <c r="K2">
         <v>3</v>
@@ -555,28 +555,28 @@
         <v>1</v>
       </c>
       <c r="M2">
-        <v>87.94127933333334</v>
+        <v>133.7780026666667</v>
       </c>
       <c r="N2">
-        <v>263.823838</v>
+        <v>401.334008</v>
       </c>
       <c r="O2">
-        <v>0.4109331243514438</v>
+        <v>0.50863533211804</v>
       </c>
       <c r="P2">
-        <v>0.4109331243514438</v>
+        <v>0.5086353321180399</v>
       </c>
       <c r="Q2">
-        <v>1479.231678750217</v>
+        <v>6000.685084846785</v>
       </c>
       <c r="R2">
-        <v>13313.08510875195</v>
+        <v>54006.16576362106</v>
       </c>
       <c r="S2">
-        <v>0.3463173361411459</v>
+        <v>0.4714860069023501</v>
       </c>
       <c r="T2">
-        <v>0.346317336141146</v>
+        <v>0.4714860069023502</v>
       </c>
     </row>
     <row r="3" spans="1:20">
@@ -599,16 +599,16 @@
         <v>1</v>
       </c>
       <c r="G3">
-        <v>16.820675</v>
+        <v>44.855544</v>
       </c>
       <c r="H3">
-        <v>50.462025</v>
+        <v>134.566632</v>
       </c>
       <c r="I3">
-        <v>0.8427583848046372</v>
+        <v>0.9269627513664965</v>
       </c>
       <c r="J3">
-        <v>0.8427583848046373</v>
+        <v>0.9269627513664968</v>
       </c>
       <c r="K3">
         <v>3</v>
@@ -623,22 +623,22 @@
         <v>157.325913</v>
       </c>
       <c r="O3">
-        <v>0.2450515065683087</v>
+        <v>0.1993888292903622</v>
       </c>
       <c r="P3">
-        <v>0.2450515065683087</v>
+        <v>0.1993888292903622</v>
       </c>
       <c r="Q3">
-        <v>882.1093505504248</v>
+        <v>2352.313137637224</v>
       </c>
       <c r="R3">
-        <v>7938.984154953824</v>
+        <v>21170.81823873502</v>
       </c>
       <c r="S3">
-        <v>0.2065192118694508</v>
+        <v>0.1848260177907389</v>
       </c>
       <c r="T3">
-        <v>0.2065192118694508</v>
+        <v>0.1848260177907389</v>
       </c>
     </row>
     <row r="4" spans="1:20">
@@ -661,16 +661,16 @@
         <v>1</v>
       </c>
       <c r="G4">
-        <v>16.820675</v>
+        <v>44.855544</v>
       </c>
       <c r="H4">
-        <v>50.462025</v>
+        <v>134.566632</v>
       </c>
       <c r="I4">
-        <v>0.8427583848046372</v>
+        <v>0.9269627513664965</v>
       </c>
       <c r="J4">
-        <v>0.8427583848046373</v>
+        <v>0.9269627513664968</v>
       </c>
       <c r="K4">
         <v>3</v>
@@ -679,28 +679,28 @@
         <v>1</v>
       </c>
       <c r="M4">
-        <v>18.95316166666667</v>
+        <v>21.197691</v>
       </c>
       <c r="N4">
-        <v>56.85948500000001</v>
+        <v>63.593073</v>
       </c>
       <c r="O4">
-        <v>0.08856457398691947</v>
+        <v>0.08059542216956049</v>
       </c>
       <c r="P4">
-        <v>0.08856457398691946</v>
+        <v>0.08059542216956046</v>
       </c>
       <c r="Q4">
-        <v>318.8049726174584</v>
+        <v>950.8339613489042</v>
       </c>
       <c r="R4">
-        <v>2869.244753557125</v>
+        <v>8557.505652140137</v>
       </c>
       <c r="S4">
-        <v>0.07463853732412704</v>
+        <v>0.07470895428184013</v>
       </c>
       <c r="T4">
-        <v>0.07463853732412704</v>
+        <v>0.07470895428184011</v>
       </c>
     </row>
     <row r="5" spans="1:20">
@@ -723,16 +723,16 @@
         <v>1</v>
       </c>
       <c r="G5">
-        <v>16.820675</v>
+        <v>44.855544</v>
       </c>
       <c r="H5">
-        <v>50.462025</v>
+        <v>134.566632</v>
       </c>
       <c r="I5">
-        <v>0.8427583848046372</v>
+        <v>0.9269627513664965</v>
       </c>
       <c r="J5">
-        <v>0.8427583848046373</v>
+        <v>0.9269627513664968</v>
       </c>
       <c r="K5">
         <v>3</v>
@@ -741,28 +741,28 @@
         <v>1</v>
       </c>
       <c r="M5">
-        <v>54.667459</v>
+        <v>55.59592133333333</v>
       </c>
       <c r="N5">
-        <v>164.002377</v>
+        <v>166.787764</v>
       </c>
       <c r="O5">
-        <v>0.255450795093328</v>
+        <v>0.2113804164220374</v>
       </c>
       <c r="P5">
-        <v>0.255450795093328</v>
+        <v>0.2113804164220373</v>
       </c>
       <c r="Q5">
-        <v>919.5435609148249</v>
+        <v>2493.785295587872</v>
       </c>
       <c r="R5">
-        <v>8275.892048233425</v>
+        <v>22444.06766029085</v>
       </c>
       <c r="S5">
-        <v>0.2152832994699135</v>
+        <v>0.1959417723915675</v>
       </c>
       <c r="T5">
-        <v>0.2152832994699135</v>
+        <v>0.1959417723915675</v>
       </c>
     </row>
     <row r="6" spans="1:20">
@@ -791,10 +791,10 @@
         <v>4.393449</v>
       </c>
       <c r="I6">
-        <v>0.07337430439942808</v>
+        <v>0.03026428998407557</v>
       </c>
       <c r="J6">
-        <v>0.07337430439942808</v>
+        <v>0.03026428998407558</v>
       </c>
       <c r="K6">
         <v>3</v>
@@ -803,28 +803,28 @@
         <v>1</v>
       </c>
       <c r="M6">
-        <v>87.94127933333334</v>
+        <v>133.7780026666667</v>
       </c>
       <c r="N6">
-        <v>263.823838</v>
+        <v>401.334008</v>
       </c>
       <c r="O6">
-        <v>0.4109331243514438</v>
+        <v>0.50863533211804</v>
       </c>
       <c r="P6">
-        <v>0.4109331243514438</v>
+        <v>0.5086353321180399</v>
       </c>
       <c r="Q6">
-        <v>128.788508581918</v>
+        <v>195.9156106792881</v>
       </c>
       <c r="R6">
-        <v>1159.096577237262</v>
+        <v>1763.240496113592</v>
       </c>
       <c r="S6">
-        <v>0.03015193215397087</v>
+        <v>0.01539348718736695</v>
       </c>
       <c r="T6">
-        <v>0.03015193215397087</v>
+        <v>0.01539348718736695</v>
       </c>
     </row>
     <row r="7" spans="1:20">
@@ -853,10 +853,10 @@
         <v>4.393449</v>
       </c>
       <c r="I7">
-        <v>0.07337430439942808</v>
+        <v>0.03026428998407557</v>
       </c>
       <c r="J7">
-        <v>0.07337430439942808</v>
+        <v>0.03026428998407558</v>
       </c>
       <c r="K7">
         <v>3</v>
@@ -871,22 +871,22 @@
         <v>157.325913</v>
       </c>
       <c r="O7">
-        <v>0.2450515065683087</v>
+        <v>0.1993888292903622</v>
       </c>
       <c r="P7">
-        <v>0.2450515065683087</v>
+        <v>0.1993888292903622</v>
       </c>
       <c r="Q7">
-        <v>76.800375015993</v>
+        <v>76.80037501599301</v>
       </c>
       <c r="R7">
-        <v>691.203375143937</v>
+        <v>691.2033751439371</v>
       </c>
       <c r="S7">
-        <v>0.01798048383648153</v>
+        <v>0.006034361349228863</v>
       </c>
       <c r="T7">
-        <v>0.01798048383648153</v>
+        <v>0.006034361349228864</v>
       </c>
     </row>
     <row r="8" spans="1:20">
@@ -915,10 +915,10 @@
         <v>4.393449</v>
       </c>
       <c r="I8">
-        <v>0.07337430439942808</v>
+        <v>0.03026428998407557</v>
       </c>
       <c r="J8">
-        <v>0.07337430439942808</v>
+        <v>0.03026428998407558</v>
       </c>
       <c r="K8">
         <v>3</v>
@@ -927,28 +927,28 @@
         <v>1</v>
       </c>
       <c r="M8">
-        <v>18.95316166666667</v>
+        <v>21.197691</v>
       </c>
       <c r="N8">
-        <v>56.85948500000001</v>
+        <v>63.593073</v>
       </c>
       <c r="O8">
-        <v>0.08856457398691947</v>
+        <v>0.08059542216956049</v>
       </c>
       <c r="P8">
-        <v>0.08856457398691946</v>
+        <v>0.08059542216956046</v>
       </c>
       <c r="Q8">
-        <v>27.75658305708501</v>
+        <v>31.04365810875301</v>
       </c>
       <c r="R8">
-        <v>249.8092475137651</v>
+        <v>279.3929229787771</v>
       </c>
       <c r="S8">
-        <v>0.006498364010721899</v>
+        <v>0.002439163227928572</v>
       </c>
       <c r="T8">
-        <v>0.006498364010721898</v>
+        <v>0.002439163227928572</v>
       </c>
     </row>
     <row r="9" spans="1:20">
@@ -977,10 +977,10 @@
         <v>4.393449</v>
       </c>
       <c r="I9">
-        <v>0.07337430439942808</v>
+        <v>0.03026428998407557</v>
       </c>
       <c r="J9">
-        <v>0.07337430439942808</v>
+        <v>0.03026428998407558</v>
       </c>
       <c r="K9">
         <v>3</v>
@@ -989,28 +989,28 @@
         <v>1</v>
       </c>
       <c r="M9">
-        <v>54.667459</v>
+        <v>55.59592133333333</v>
       </c>
       <c r="N9">
-        <v>164.002377</v>
+        <v>166.787764</v>
       </c>
       <c r="O9">
-        <v>0.255450795093328</v>
+        <v>0.2113804164220374</v>
       </c>
       <c r="P9">
-        <v>0.255450795093328</v>
+        <v>0.2113804164220373</v>
       </c>
       <c r="Q9">
-        <v>80.05956435869702</v>
+        <v>81.41928166200401</v>
       </c>
       <c r="R9">
-        <v>720.536079228273</v>
+        <v>732.773534958036</v>
       </c>
       <c r="S9">
-        <v>0.01874352439825378</v>
+        <v>0.006397278219551189</v>
       </c>
       <c r="T9">
-        <v>0.01874352439825378</v>
+        <v>0.006397278219551188</v>
       </c>
     </row>
     <row r="10" spans="1:20">
@@ -1033,16 +1033,16 @@
         <v>1</v>
       </c>
       <c r="G10">
-        <v>1.561668</v>
+        <v>1.967437666666666</v>
       </c>
       <c r="H10">
-        <v>4.685003999999999</v>
+        <v>5.902312999999999</v>
       </c>
       <c r="I10">
-        <v>0.07824351884101489</v>
+        <v>0.04065810533109158</v>
       </c>
       <c r="J10">
-        <v>0.07824351884101489</v>
+        <v>0.0406581053310916</v>
       </c>
       <c r="K10">
         <v>3</v>
@@ -1051,28 +1051,28 @@
         <v>1</v>
       </c>
       <c r="M10">
-        <v>87.94127933333334</v>
+        <v>133.7780026666667</v>
       </c>
       <c r="N10">
-        <v>263.823838</v>
+        <v>401.334008</v>
       </c>
       <c r="O10">
-        <v>0.4109331243514438</v>
+        <v>0.50863533211804</v>
       </c>
       <c r="P10">
-        <v>0.4109331243514438</v>
+        <v>0.5086353321180399</v>
       </c>
       <c r="Q10">
-        <v>137.335081813928</v>
+        <v>263.1998814178338</v>
       </c>
       <c r="R10">
-        <v>1236.015736325352</v>
+        <v>2368.798932760504</v>
       </c>
       <c r="S10">
-        <v>0.03215285365758931</v>
+        <v>0.02068014890837002</v>
       </c>
       <c r="T10">
-        <v>0.03215285365758931</v>
+        <v>0.02068014890837002</v>
       </c>
     </row>
     <row r="11" spans="1:20">
@@ -1095,16 +1095,16 @@
         <v>1</v>
       </c>
       <c r="G11">
-        <v>1.561668</v>
+        <v>1.967437666666666</v>
       </c>
       <c r="H11">
-        <v>4.685003999999999</v>
+        <v>5.902312999999999</v>
       </c>
       <c r="I11">
-        <v>0.07824351884101489</v>
+        <v>0.04065810533109158</v>
       </c>
       <c r="J11">
-        <v>0.07824351884101489</v>
+        <v>0.0406581053310916</v>
       </c>
       <c r="K11">
         <v>3</v>
@@ -1119,22 +1119,22 @@
         <v>157.325913</v>
       </c>
       <c r="O11">
-        <v>0.2450515065683087</v>
+        <v>0.1993888292903622</v>
       </c>
       <c r="P11">
-        <v>0.2450515065683087</v>
+        <v>0.1993888292903622</v>
       </c>
       <c r="Q11">
-        <v>81.89694796762798</v>
+        <v>103.176309059641</v>
       </c>
       <c r="R11">
-        <v>737.0725317086518</v>
+        <v>928.586781536769</v>
       </c>
       <c r="S11">
-        <v>0.01917369217119655</v>
+        <v>0.008106772023130586</v>
       </c>
       <c r="T11">
-        <v>0.01917369217119655</v>
+        <v>0.008106772023130588</v>
       </c>
     </row>
     <row r="12" spans="1:20">
@@ -1157,16 +1157,16 @@
         <v>1</v>
       </c>
       <c r="G12">
-        <v>1.561668</v>
+        <v>1.967437666666666</v>
       </c>
       <c r="H12">
-        <v>4.685003999999999</v>
+        <v>5.902312999999999</v>
       </c>
       <c r="I12">
-        <v>0.07824351884101489</v>
+        <v>0.04065810533109158</v>
       </c>
       <c r="J12">
-        <v>0.07824351884101489</v>
+        <v>0.0406581053310916</v>
       </c>
       <c r="K12">
         <v>3</v>
@@ -1175,28 +1175,28 @@
         <v>1</v>
       </c>
       <c r="M12">
-        <v>18.95316166666667</v>
+        <v>21.197691</v>
       </c>
       <c r="N12">
-        <v>56.85948500000001</v>
+        <v>63.593073</v>
       </c>
       <c r="O12">
-        <v>0.08856457398691947</v>
+        <v>0.08059542216956049</v>
       </c>
       <c r="P12">
-        <v>0.08856457398691946</v>
+        <v>0.08059542216956046</v>
       </c>
       <c r="Q12">
-        <v>29.59854607366</v>
+        <v>41.705135719761</v>
       </c>
       <c r="R12">
-        <v>266.38691466294</v>
+        <v>375.346221477849</v>
       </c>
       <c r="S12">
-        <v>0.006929603913391991</v>
+        <v>0.003276857163773784</v>
       </c>
       <c r="T12">
-        <v>0.00692960391339199</v>
+        <v>0.003276857163773784</v>
       </c>
     </row>
     <row r="13" spans="1:20">
@@ -1219,16 +1219,16 @@
         <v>1</v>
       </c>
       <c r="G13">
-        <v>1.561668</v>
+        <v>1.967437666666666</v>
       </c>
       <c r="H13">
-        <v>4.685003999999999</v>
+        <v>5.902312999999999</v>
       </c>
       <c r="I13">
-        <v>0.07824351884101489</v>
+        <v>0.04065810533109158</v>
       </c>
       <c r="J13">
-        <v>0.07824351884101489</v>
+        <v>0.0406581053310916</v>
       </c>
       <c r="K13">
         <v>3</v>
@@ -1237,28 +1237,28 @@
         <v>1</v>
       </c>
       <c r="M13">
-        <v>54.667459</v>
+        <v>55.59592133333333</v>
       </c>
       <c r="N13">
-        <v>164.002377</v>
+        <v>166.787764</v>
       </c>
       <c r="O13">
-        <v>0.255450795093328</v>
+        <v>0.2113804164220374</v>
       </c>
       <c r="P13">
-        <v>0.255450795093328</v>
+        <v>0.2113804164220373</v>
       </c>
       <c r="Q13">
-        <v>85.372421361612</v>
+        <v>109.3815097442369</v>
       </c>
       <c r="R13">
-        <v>768.3517922545078</v>
+        <v>984.4335876981318</v>
       </c>
       <c r="S13">
-        <v>0.01998736909883705</v>
+        <v>0.008594327235817196</v>
       </c>
       <c r="T13">
-        <v>0.01998736909883705</v>
+        <v>0.008594327235817198</v>
       </c>
     </row>
     <row r="14" spans="1:20">
@@ -1275,22 +1275,22 @@
         <v>20</v>
       </c>
       <c r="E14">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="F14">
-        <v>1</v>
+        <v>0.6666666666666666</v>
       </c>
       <c r="G14">
-        <v>0.1122456666666666</v>
+        <v>0.1023373333333333</v>
       </c>
       <c r="H14">
-        <v>0.336737</v>
+        <v>0.307012</v>
       </c>
       <c r="I14">
-        <v>0.005623791954919746</v>
+        <v>0.002114853318336234</v>
       </c>
       <c r="J14">
-        <v>0.005623791954919746</v>
+        <v>0.002114853318336234</v>
       </c>
       <c r="K14">
         <v>3</v>
@@ -1299,28 +1299,28 @@
         <v>1</v>
       </c>
       <c r="M14">
-        <v>87.94127933333334</v>
+        <v>133.7780026666667</v>
       </c>
       <c r="N14">
-        <v>263.823838</v>
+        <v>401.334008</v>
       </c>
       <c r="O14">
-        <v>0.4109331243514438</v>
+        <v>0.50863533211804</v>
       </c>
       <c r="P14">
-        <v>0.4109331243514438</v>
+        <v>0.5086353321180399</v>
       </c>
       <c r="Q14">
-        <v>9.871027526289554</v>
+        <v>13.69048405156622</v>
       </c>
       <c r="R14">
-        <v>88.839247736606</v>
+        <v>123.214356464096</v>
       </c>
       <c r="S14">
-        <v>0.002311002398737685</v>
+        <v>0.001075689119952889</v>
       </c>
       <c r="T14">
-        <v>0.002311002398737685</v>
+        <v>0.001075689119952889</v>
       </c>
     </row>
     <row r="15" spans="1:20">
@@ -1337,22 +1337,22 @@
         <v>21</v>
       </c>
       <c r="E15">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="F15">
-        <v>1</v>
+        <v>0.6666666666666666</v>
       </c>
       <c r="G15">
-        <v>0.1122456666666666</v>
+        <v>0.1023373333333333</v>
       </c>
       <c r="H15">
-        <v>0.336737</v>
+        <v>0.307012</v>
       </c>
       <c r="I15">
-        <v>0.005623791954919746</v>
+        <v>0.002114853318336234</v>
       </c>
       <c r="J15">
-        <v>0.005623791954919746</v>
+        <v>0.002114853318336234</v>
       </c>
       <c r="K15">
         <v>3</v>
@@ -1367,22 +1367,22 @@
         <v>157.325913</v>
       </c>
       <c r="O15">
-        <v>0.2450515065683087</v>
+        <v>0.1993888292903622</v>
       </c>
       <c r="P15">
-        <v>0.2450515065683087</v>
+        <v>0.1993888292903622</v>
       </c>
       <c r="Q15">
-        <v>5.886383996208998</v>
+        <v>5.366771466884001</v>
       </c>
       <c r="R15">
-        <v>52.97745596588098</v>
+        <v>48.300943201956</v>
       </c>
       <c r="S15">
-        <v>0.001378118691179818</v>
+        <v>0.0004216781272638994</v>
       </c>
       <c r="T15">
-        <v>0.001378118691179818</v>
+        <v>0.0004216781272638995</v>
       </c>
     </row>
     <row r="16" spans="1:20">
@@ -1399,22 +1399,22 @@
         <v>22</v>
       </c>
       <c r="E16">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="F16">
-        <v>1</v>
+        <v>0.6666666666666666</v>
       </c>
       <c r="G16">
-        <v>0.1122456666666666</v>
+        <v>0.1023373333333333</v>
       </c>
       <c r="H16">
-        <v>0.336737</v>
+        <v>0.307012</v>
       </c>
       <c r="I16">
-        <v>0.005623791954919746</v>
+        <v>0.002114853318336234</v>
       </c>
       <c r="J16">
-        <v>0.005623791954919746</v>
+        <v>0.002114853318336234</v>
       </c>
       <c r="K16">
         <v>3</v>
@@ -1423,28 +1423,28 @@
         <v>1</v>
       </c>
       <c r="M16">
-        <v>18.95316166666667</v>
+        <v>21.197691</v>
       </c>
       <c r="N16">
-        <v>56.85948500000001</v>
+        <v>63.593073</v>
       </c>
       <c r="O16">
-        <v>0.08856457398691947</v>
+        <v>0.08059542216956049</v>
       </c>
       <c r="P16">
-        <v>0.08856457398691946</v>
+        <v>0.08059542216956046</v>
       </c>
       <c r="Q16">
-        <v>2.127410266716111</v>
+        <v>2.169315169764</v>
       </c>
       <c r="R16">
-        <v>19.146692400445</v>
+        <v>19.523836527876</v>
       </c>
       <c r="S16">
-        <v>0.0004980687386785324</v>
+        <v>0.0001704474960180047</v>
       </c>
       <c r="T16">
-        <v>0.0004980687386785322</v>
+        <v>0.0001704474960180047</v>
       </c>
     </row>
     <row r="17" spans="1:20">
@@ -1461,22 +1461,22 @@
         <v>23</v>
       </c>
       <c r="E17">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="F17">
-        <v>1</v>
+        <v>0.6666666666666666</v>
       </c>
       <c r="G17">
-        <v>0.1122456666666666</v>
+        <v>0.1023373333333333</v>
       </c>
       <c r="H17">
-        <v>0.336737</v>
+        <v>0.307012</v>
       </c>
       <c r="I17">
-        <v>0.005623791954919746</v>
+        <v>0.002114853318336234</v>
       </c>
       <c r="J17">
-        <v>0.005623791954919746</v>
+        <v>0.002114853318336234</v>
       </c>
       <c r="K17">
         <v>3</v>
@@ -1485,28 +1485,28 @@
         <v>1</v>
       </c>
       <c r="M17">
-        <v>54.667459</v>
+        <v>55.59592133333333</v>
       </c>
       <c r="N17">
-        <v>164.002377</v>
+        <v>166.787764</v>
       </c>
       <c r="O17">
-        <v>0.255450795093328</v>
+        <v>0.2113804164220374</v>
       </c>
       <c r="P17">
-        <v>0.255450795093328</v>
+        <v>0.2113804164220373</v>
       </c>
       <c r="Q17">
-        <v>6.136185380427666</v>
+        <v>5.689538333463111</v>
       </c>
       <c r="R17">
-        <v>55.22566842384899</v>
+        <v>51.20584500116799</v>
       </c>
       <c r="S17">
-        <v>0.001436602126323711</v>
+        <v>0.0004470385751014407</v>
       </c>
       <c r="T17">
-        <v>0.001436602126323711</v>
+        <v>0.0004470385751014407</v>
       </c>
     </row>
   </sheetData>
